--- a/data/trans_orig/P34A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>35822</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24856</v>
+        <v>24525</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50329</v>
+        <v>48862</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07628629797269047</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05293361600661042</v>
+        <v>0.05222802134733354</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.107180525134389</v>
+        <v>0.1040557170198421</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>11673</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6660</v>
+        <v>6455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19990</v>
+        <v>19525</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03892409425313682</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02220852345552925</v>
+        <v>0.02152448645505431</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0666616640427143</v>
+        <v>0.06510799874502854</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -786,19 +786,19 @@
         <v>47494</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35400</v>
+        <v>34636</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63189</v>
+        <v>61982</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06172505528279502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04600624018752327</v>
+        <v>0.04501399612937591</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08212179121566276</v>
+        <v>0.08055319028362506</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>87605</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71885</v>
+        <v>71251</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106832</v>
+        <v>106621</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1865636179572566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1530871238280087</v>
+        <v>0.151737344516969</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2275092797713707</v>
+        <v>0.2270606372759504</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -836,19 +836,19 @@
         <v>31949</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22137</v>
+        <v>22260</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44842</v>
+        <v>43667</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1065394948044346</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07381849484458985</v>
+        <v>0.074231086891308</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1495343406874297</v>
+        <v>0.1456169274465165</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>116</v>
@@ -857,19 +857,19 @@
         <v>119554</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>101142</v>
+        <v>100944</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>143494</v>
+        <v>141283</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1553756642963625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1314465921423028</v>
+        <v>0.1311899222555237</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1864888280425438</v>
+        <v>0.1836151070915873</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>182750</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160009</v>
+        <v>162632</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>205465</v>
+        <v>204112</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3891853454462825</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3407553067863721</v>
+        <v>0.3463424831750133</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4375591056537219</v>
+        <v>0.4346781906150671</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>144</v>
@@ -907,19 +907,19 @@
         <v>145569</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>128522</v>
+        <v>128272</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>162164</v>
+        <v>164390</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4854263611134012</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.42857931331063</v>
+        <v>0.4277454998283022</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5407645086746196</v>
+        <v>0.5481885662759396</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>321</v>
@@ -928,19 +928,19 @@
         <v>328319</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>301061</v>
+        <v>300132</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>355539</v>
+        <v>354204</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.426693539458873</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3912682807072371</v>
+        <v>0.3900606621672184</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4620686455686986</v>
+        <v>0.4603338342864196</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>163394</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>141475</v>
+        <v>145068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>182415</v>
+        <v>183779</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3479647386237705</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3012847659879597</v>
+        <v>0.3089363014216734</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3884709909105188</v>
+        <v>0.3913762523854047</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>105</v>
@@ -978,19 +978,19 @@
         <v>110688</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>94260</v>
+        <v>93634</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126914</v>
+        <v>128405</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3691100498290274</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.314326989704836</v>
+        <v>0.3122386172340231</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4232179753918629</v>
+        <v>0.4281895602921732</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>260</v>
@@ -999,19 +999,19 @@
         <v>274083</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>245006</v>
+        <v>244758</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>302206</v>
+        <v>301199</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3562057409619696</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3184176041069708</v>
+        <v>0.3180944198173561</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3927564078912856</v>
+        <v>0.3914474652634373</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>19262</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11476</v>
+        <v>12407</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29663</v>
+        <v>29008</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05336247062059035</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03179344128633283</v>
+        <v>0.03437045196435612</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08217481562782711</v>
+        <v>0.08036107408498055</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1124,19 +1124,19 @@
         <v>4968</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1918</v>
+        <v>1910</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11547</v>
+        <v>10989</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01366673811157904</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005276031492535113</v>
+        <v>0.005255055126390157</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03176644333058141</v>
+        <v>0.03023153606125394</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -1145,19 +1145,19 @@
         <v>24230</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15738</v>
+        <v>15464</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>35855</v>
+        <v>34982</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03344571715453899</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02172403758894596</v>
+        <v>0.02134568592488048</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04949205922235134</v>
+        <v>0.04828713476826806</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>72157</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57251</v>
+        <v>56431</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88245</v>
+        <v>87866</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1998983626343877</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1586037328471401</v>
+        <v>0.1563321386024275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2444659782225203</v>
+        <v>0.2434155284828411</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1195,19 +1195,19 @@
         <v>31242</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21749</v>
+        <v>21269</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42944</v>
+        <v>43770</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08595119119365563</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05983465658423813</v>
+        <v>0.05851408185270168</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1181463714745403</v>
+        <v>0.1204184194353793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -1216,19 +1216,19 @@
         <v>103399</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86069</v>
+        <v>84979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123649</v>
+        <v>123086</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1427270351819024</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1188047648933961</v>
+        <v>0.1173003654509288</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1706792258143706</v>
+        <v>0.1699023577183607</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>161223</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>140109</v>
+        <v>140775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>181065</v>
+        <v>181637</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4466375146688776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3881465642292817</v>
+        <v>0.3899897208113664</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.501606829863909</v>
+        <v>0.5031903686627782</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>167</v>
@@ -1266,19 +1266,19 @@
         <v>171889</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153158</v>
+        <v>152439</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>190480</v>
+        <v>191320</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4728936518397969</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4213612818249112</v>
+        <v>0.419382752813709</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5240402520736157</v>
+        <v>0.5263507990905353</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>322</v>
@@ -1287,19 +1287,19 @@
         <v>333112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>305926</v>
+        <v>305958</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>359218</v>
+        <v>360174</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4598111476503401</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4222846190072869</v>
+        <v>0.4223290009839853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4958463176773941</v>
+        <v>0.4971660165576933</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>108328</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90891</v>
+        <v>91688</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>125981</v>
+        <v>129133</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3001016520761444</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.25179618271765</v>
+        <v>0.2540053365990648</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3490071095868293</v>
+        <v>0.3577392977057562</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>152</v>
@@ -1337,19 +1337,19 @@
         <v>155385</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>138190</v>
+        <v>136102</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>174739</v>
+        <v>173347</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4274884188549684</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3801812013047751</v>
+        <v>0.3744366917316779</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4807345021851238</v>
+        <v>0.4769028962740461</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>255</v>
@@ -1358,19 +1358,19 @@
         <v>263713</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>237594</v>
+        <v>236514</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>291485</v>
+        <v>289566</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3640161000132184</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3279633307517959</v>
+        <v>0.3264721760215856</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.402351375550122</v>
+        <v>0.3997030520630236</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>18078</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10917</v>
+        <v>10592</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29646</v>
+        <v>28981</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03361975040663455</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02030215444716342</v>
+        <v>0.01969850972109156</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05513409986447842</v>
+        <v>0.05389613657975253</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6463</v>
+        <v>6297</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01116005822615803</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03924756564597204</v>
+        <v>0.03824250839596077</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1504,19 +1504,19 @@
         <v>19916</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12062</v>
+        <v>11634</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29185</v>
+        <v>30400</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02835443403974373</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01717358497811858</v>
+        <v>0.01656318488720389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04155223604424155</v>
+        <v>0.04328227045783967</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>45733</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>34298</v>
+        <v>33058</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>61531</v>
+        <v>59962</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08504959901096258</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0637837003994587</v>
+        <v>0.06147845325452243</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1144303604315202</v>
+        <v>0.1115123432349603</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -1554,19 +1554,19 @@
         <v>12084</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6876</v>
+        <v>6996</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19967</v>
+        <v>19823</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07338586639509188</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04175633479111499</v>
+        <v>0.04248751677912786</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1212614739951249</v>
+        <v>0.1203855738983197</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>55</v>
@@ -1575,19 +1575,19 @@
         <v>57816</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>45174</v>
+        <v>44473</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>74008</v>
+        <v>73081</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08231522305656876</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06431614084111682</v>
+        <v>0.06331753336996582</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1053672192459946</v>
+        <v>0.1040484419812129</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>224658</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>201851</v>
+        <v>199806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>247403</v>
+        <v>245089</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4178006322079766</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3753850436758351</v>
+        <v>0.371582493688415</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4600995426996449</v>
+        <v>0.4557959156606379</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -1625,19 +1625,19 @@
         <v>73956</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61568</v>
+        <v>61156</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86813</v>
+        <v>86089</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4491430450377117</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.373905869456479</v>
+        <v>0.3714073500093776</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5272205791005495</v>
+        <v>0.5228267407514782</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>297</v>
@@ -1646,19 +1646,19 @@
         <v>298614</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>274457</v>
+        <v>274177</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>327599</v>
+        <v>325867</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4251483606596473</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.390755178065591</v>
+        <v>0.3903558767489624</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.466414777626455</v>
+        <v>0.4639493901657979</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>249248</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>227699</v>
+        <v>227669</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>270617</v>
+        <v>273650</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4635300183744263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4234550672305389</v>
+        <v>0.4233993876751536</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5032709731499208</v>
+        <v>0.5089110809483581</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>75</v>
@@ -1696,19 +1696,19 @@
         <v>76783</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63464</v>
+        <v>65204</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>90244</v>
+        <v>90557</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4663110303410384</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3854217523924805</v>
+        <v>0.3959903723971043</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.548058778356311</v>
+        <v>0.5499617837981314</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>317</v>
@@ -1717,19 +1717,19 @@
         <v>326031</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>298791</v>
+        <v>300519</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>350327</v>
+        <v>353031</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4641819822440402</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4254003200776195</v>
+        <v>0.4278600572128838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4987733176643561</v>
+        <v>0.5026231167502464</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>22352</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12954</v>
+        <v>13663</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32781</v>
+        <v>33434</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01836967343246707</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01064595114536171</v>
+        <v>0.01122833931872281</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02694036736437465</v>
+        <v>0.02747722209762664</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1842,19 +1842,19 @@
         <v>9212</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4409</v>
+        <v>3755</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18712</v>
+        <v>17571</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01303344212195231</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006237583926379107</v>
+        <v>0.005313020450499791</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0264744124465851</v>
+        <v>0.02486012595011934</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -1863,19 +1863,19 @@
         <v>31564</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21893</v>
+        <v>21100</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45248</v>
+        <v>45691</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01640896740082577</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01138123314227592</v>
+        <v>0.01096911011300919</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02352274095039669</v>
+        <v>0.02375293623512992</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>80243</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>64535</v>
+        <v>63424</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>98396</v>
+        <v>97830</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06594577334569079</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05303671301055868</v>
+        <v>0.05212384531193351</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08086467429102268</v>
+        <v>0.08039953236837769</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -1913,19 +1913,19 @@
         <v>37998</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26569</v>
+        <v>27368</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51405</v>
+        <v>51133</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05376212816959797</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03759137977776033</v>
+        <v>0.03872190678797749</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07272996802627175</v>
+        <v>0.07234560287287323</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>117</v>
@@ -1934,19 +1934,19 @@
         <v>118241</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>98781</v>
+        <v>99182</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>142192</v>
+        <v>140795</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06146910335256821</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05135266025137138</v>
+        <v>0.05156110839351177</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07392017592394293</v>
+        <v>0.07319423851512206</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>541786</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>510528</v>
+        <v>509280</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>583397</v>
+        <v>576314</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4452553434547116</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4195667102180274</v>
+        <v>0.4185408503511271</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4794523792476781</v>
+        <v>0.4736319259724208</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>321</v>
@@ -1984,19 +1984,19 @@
         <v>324813</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>297829</v>
+        <v>297587</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>352140</v>
+        <v>349856</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4595621918617678</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4213836850850707</v>
+        <v>0.4210410067463448</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4982259402777422</v>
+        <v>0.4949938625554803</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>861</v>
@@ -2005,19 +2005,19 @@
         <v>866599</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>823196</v>
+        <v>821656</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>914541</v>
+        <v>911542</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.450512147804669</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4279487215501751</v>
+        <v>0.4271479698502471</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4754355379264962</v>
+        <v>0.4738763467882915</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>572417</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>536645</v>
+        <v>540138</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>606909</v>
+        <v>606829</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4704292097671305</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4410303255263943</v>
+        <v>0.4439009216950263</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4987753183815565</v>
+        <v>0.4987100208310049</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>321</v>
@@ -2055,19 +2055,19 @@
         <v>334765</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>308648</v>
+        <v>309358</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>363104</v>
+        <v>361483</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4736422378466819</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4366916012852586</v>
+        <v>0.4376950216257379</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5137387523796515</v>
+        <v>0.5114448043967804</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>884</v>
@@ -2076,19 +2076,19 @@
         <v>907182</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>861974</v>
+        <v>860866</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>952708</v>
+        <v>949437</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.471609781441937</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4481076965863307</v>
+        <v>0.4475321045923193</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4952772918843081</v>
+        <v>0.493576469572905</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>3675</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>972</v>
+        <v>943</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8948</v>
+        <v>9211</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01072018548340891</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002835444475096227</v>
+        <v>0.002751144141258122</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02609779751433573</v>
+        <v>0.02686533779730612</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5741</v>
+        <v>6185</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003213887319700082</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01034248331935868</v>
+        <v>0.01114150073580783</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2222,19 +2222,19 @@
         <v>5460</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1861</v>
+        <v>1927</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11059</v>
+        <v>11086</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006079890309049834</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002072390262785118</v>
+        <v>0.002146045755827922</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01231544755310633</v>
+        <v>0.01234559940676702</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>30334</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21561</v>
+        <v>21099</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41649</v>
+        <v>44210</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08847561238839716</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06288643274249894</v>
+        <v>0.0615399106342293</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.12147642293256</v>
+        <v>0.1289479229181144</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -2272,19 +2272,19 @@
         <v>15900</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9113</v>
+        <v>8866</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24117</v>
+        <v>24261</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02864353436090724</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01641708970352978</v>
+        <v>0.01597124173041873</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04344644977545215</v>
+        <v>0.04370480768823667</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -2293,19 +2293,19 @@
         <v>46234</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34229</v>
+        <v>34314</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60773</v>
+        <v>60334</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05148820569502151</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03811874103079183</v>
+        <v>0.03821334696657595</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06767927722215529</v>
+        <v>0.06719001559396637</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>134496</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>115643</v>
+        <v>116419</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>153282</v>
+        <v>153792</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3922843047124057</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3372964964162601</v>
+        <v>0.3395599986409983</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4470783492942617</v>
+        <v>0.4485647704507628</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>226</v>
@@ -2343,19 +2343,19 @@
         <v>237543</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>216372</v>
+        <v>214083</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>261735</v>
+        <v>261016</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.427922685681457</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.389784449177338</v>
+        <v>0.3856606346705722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4715026678160987</v>
+        <v>0.4702078047929472</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>357</v>
@@ -2364,19 +2364,19 @@
         <v>372039</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>339653</v>
+        <v>345258</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>401651</v>
+        <v>399849</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4143154848795081</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.378249594392712</v>
+        <v>0.3844911297431773</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4472920350459207</v>
+        <v>0.4452853869965248</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>174348</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>155723</v>
+        <v>156487</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>194962</v>
+        <v>193333</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5085198974157882</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4541989202657419</v>
+        <v>0.4564273517649916</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5686447586417136</v>
+        <v>0.5638933115023985</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>282</v>
@@ -2414,19 +2414,19 @@
         <v>299880</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>276043</v>
+        <v>275600</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>321094</v>
+        <v>323133</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5402198926379357</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4972780922494064</v>
+        <v>0.4964806962207766</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5784355564545198</v>
+        <v>0.5821082451649067</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>450</v>
@@ -2435,19 +2435,19 @@
         <v>474228</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>444241</v>
+        <v>446311</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>506940</v>
+        <v>504752</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5281164191164205</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4947220693517067</v>
+        <v>0.4970276468120803</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5645459621285908</v>
+        <v>0.562109449102977</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>48829</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36690</v>
+        <v>37359</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>61656</v>
+        <v>61489</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1642404519586667</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.123408749045322</v>
+        <v>0.1256590534802597</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2073863565934815</v>
+        <v>0.2068236507190192</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -2560,19 +2560,19 @@
         <v>25520</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16836</v>
+        <v>17614</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>36125</v>
+        <v>38562</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02078556763487319</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01371240912856849</v>
+        <v>0.01434657021145403</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02942324803805823</v>
+        <v>0.03140808288256781</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>78</v>
@@ -2581,19 +2581,19 @@
         <v>74349</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>58144</v>
+        <v>59439</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>90812</v>
+        <v>93119</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04875118261962116</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03812581097797483</v>
+        <v>0.03897477596163602</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05954592199524844</v>
+        <v>0.06105880246447667</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>81943</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>66769</v>
+        <v>68447</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>96778</v>
+        <v>98285</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.275621319086428</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2245840346781283</v>
+        <v>0.2302263620041203</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3255224877548212</v>
+        <v>0.3305908069107688</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>67</v>
@@ -2631,19 +2631,19 @@
         <v>62469</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47748</v>
+        <v>49825</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>76802</v>
+        <v>78879</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05087988456661852</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03889047721251405</v>
+        <v>0.04058209485911977</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06255439180528252</v>
+        <v>0.06424578434243057</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>150</v>
@@ -2652,19 +2652,19 @@
         <v>144411</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>121946</v>
+        <v>123419</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>166217</v>
+        <v>169106</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09469179420306509</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07996081455610264</v>
+        <v>0.0809267194615991</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1089900407643358</v>
+        <v>0.1108841840626372</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>110066</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>94333</v>
+        <v>94445</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>127121</v>
+        <v>126272</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.370215772850209</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3172963726583932</v>
+        <v>0.3176723037496547</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4275826373521414</v>
+        <v>0.4247252823259162</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>587</v>
@@ -2702,19 +2702,19 @@
         <v>587290</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>552346</v>
+        <v>551825</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>624752</v>
+        <v>622195</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4783403863002616</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4498789023450293</v>
+        <v>0.4494546499979175</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5088532457932293</v>
+        <v>0.5067706779971387</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>701</v>
@@ -2723,19 +2723,19 @@
         <v>697355</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>660233</v>
+        <v>657753</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>734536</v>
+        <v>733844</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4572621823452545</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4329204348033958</v>
+        <v>0.4312947662447603</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4816417465586595</v>
+        <v>0.4811879604537263</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>56464</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>44773</v>
+        <v>44940</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>71952</v>
+        <v>71088</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1899224561046963</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1505978524640519</v>
+        <v>0.1511578487593458</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2420169331244448</v>
+        <v>0.2391114228278582</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>537</v>
@@ -2773,19 +2773,19 @@
         <v>552487</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>515170</v>
+        <v>516829</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>586306</v>
+        <v>588490</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4499941614982467</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4195999362823218</v>
+        <v>0.420950702598249</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4775393772676637</v>
+        <v>0.4793178537395203</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>593</v>
@@ -2794,19 +2794,19 @@
         <v>608951</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>574106</v>
+        <v>573776</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>648859</v>
+        <v>650399</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3992948408320592</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3764461603676812</v>
+        <v>0.3762299813803727</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4254627421699249</v>
+        <v>0.4264724247961201</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>148019</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>127329</v>
+        <v>127670</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>173584</v>
+        <v>175053</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04589425490115985</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03947926312980187</v>
+        <v>0.03958501998050113</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05382114031781596</v>
+        <v>0.05427632402364529</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>56</v>
@@ -2919,19 +2919,19 @@
         <v>54994</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>41380</v>
+        <v>41557</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>71490</v>
+        <v>72773</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01657587059492131</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01247261219772088</v>
+        <v>0.01252583244572661</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02154824159272477</v>
+        <v>0.02193478915635479</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>202</v>
@@ -2940,19 +2940,19 @@
         <v>203012</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>176917</v>
+        <v>177219</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>231016</v>
+        <v>231862</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03102787224810235</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0270394952355625</v>
+        <v>0.02708567878656834</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03530795830716678</v>
+        <v>0.03543726403046612</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>398014</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>358518</v>
+        <v>361786</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>437660</v>
+        <v>439873</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1234072506423426</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1111610043445035</v>
+        <v>0.1121745290546957</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1356997709619512</v>
+        <v>0.1363857894726346</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>192</v>
@@ -2990,19 +2990,19 @@
         <v>191642</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>164578</v>
+        <v>165742</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>218463</v>
+        <v>218014</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05776373523237161</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04960616435459572</v>
+        <v>0.04995715853227118</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06584815165968678</v>
+        <v>0.06571280148857223</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>582</v>
@@ -3011,19 +3011,19 @@
         <v>589656</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>542983</v>
+        <v>541365</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>636123</v>
+        <v>634508</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09012159586057991</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08298813799985041</v>
+        <v>0.08274094173559937</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09722346108611539</v>
+        <v>0.09697667777181646</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>1354979</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1300161</v>
+        <v>1299125</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1412381</v>
+        <v>1411148</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4201210176310027</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4031244505832307</v>
+        <v>0.4028031003378095</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4379190202303479</v>
+        <v>0.4375367390692154</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1517</v>
@@ -3061,19 +3061,19 @@
         <v>1541061</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1480376</v>
+        <v>1480873</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1599300</v>
+        <v>1598702</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4644988086919835</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4462072500787535</v>
+        <v>0.4463572955187013</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4820528790472432</v>
+        <v>0.4818726406357089</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2859</v>
@@ -3082,19 +3082,19 @@
         <v>2896040</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2812350</v>
+        <v>2819383</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2974666</v>
+        <v>2977037</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4426235271935638</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4298326668866781</v>
+        <v>0.4309075330529231</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4546405779605632</v>
+        <v>0.4550029102884757</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>1324199</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1267808</v>
+        <v>1267596</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1383461</v>
+        <v>1383623</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4105774768254948</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3930931157064722</v>
+        <v>0.3930274144893564</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4289522900705777</v>
+        <v>0.4290024428511842</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1472</v>
@@ -3132,19 +3132,19 @@
         <v>1529989</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1475599</v>
+        <v>1472724</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1589922</v>
+        <v>1586311</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4611615854807236</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4447676662436122</v>
+        <v>0.443901013507355</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.479226103856271</v>
+        <v>0.4781377186274988</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2759</v>
@@ -3153,19 +3153,19 @@
         <v>2854188</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2774895</v>
+        <v>2763100</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2938027</v>
+        <v>2930135</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4362270046977539</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4241080559275586</v>
+        <v>0.4223053497999392</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4490408152846951</v>
+        <v>0.4478345926314161</v>
       </c>
     </row>
     <row r="38">
@@ -3499,19 +3499,19 @@
         <v>46570</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34934</v>
+        <v>35174</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61506</v>
+        <v>60340</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1065150190270176</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.079900819700932</v>
+        <v>0.08045034599353981</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1406773413268846</v>
+        <v>0.1380112307706069</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -3520,19 +3520,19 @@
         <v>15225</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8466</v>
+        <v>8263</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25672</v>
+        <v>25584</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04841787228887456</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02692151224331062</v>
+        <v>0.02627617349040118</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08164082638356379</v>
+        <v>0.08136063989655093</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -3541,19 +3541,19 @@
         <v>61795</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47124</v>
+        <v>49990</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78266</v>
+        <v>80812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08221044966119899</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0626931983775125</v>
+        <v>0.06650598391734787</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1041232313819736</v>
+        <v>0.1075111026458248</v>
       </c>
     </row>
     <row r="5">
@@ -3570,19 +3570,19 @@
         <v>92532</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74718</v>
+        <v>75194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111413</v>
+        <v>110968</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2116405034866223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1708972368102715</v>
+        <v>0.1719851936487944</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.25482657568787</v>
+        <v>0.253807740277091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -3591,19 +3591,19 @@
         <v>38628</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27291</v>
+        <v>27821</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53331</v>
+        <v>52857</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1228415731651433</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08678836658005561</v>
+        <v>0.08847548178123091</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1696001812620241</v>
+        <v>0.1680898718283479</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -3612,19 +3612,19 @@
         <v>131160</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>110034</v>
+        <v>110503</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>154105</v>
+        <v>155148</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1744920395295804</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1463870750403113</v>
+        <v>0.1470109546331055</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2050188288496151</v>
+        <v>0.2064062843972986</v>
       </c>
     </row>
     <row r="6">
@@ -3641,19 +3641,19 @@
         <v>229695</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>208084</v>
+        <v>207096</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>252736</v>
+        <v>251917</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5253647185483459</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4759354256706485</v>
+        <v>0.4736750487390028</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5780648260074425</v>
+        <v>0.5761902102973295</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -3662,19 +3662,19 @@
         <v>193129</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>174835</v>
+        <v>173658</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>211073</v>
+        <v>211782</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6141725365540687</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5559949546457289</v>
+        <v>0.5522534076356634</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6712368274497257</v>
+        <v>0.6734910820566546</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>383</v>
@@ -3683,19 +3683,19 @@
         <v>422824</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>393669</v>
+        <v>395605</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>453205</v>
+        <v>453772</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.562516900611187</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5237290546500115</v>
+        <v>0.5263046884989075</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6029353133580336</v>
+        <v>0.6036891267572014</v>
       </c>
     </row>
     <row r="7">
@@ -3712,19 +3712,19 @@
         <v>68415</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53836</v>
+        <v>53220</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86892</v>
+        <v>84313</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1564797589380142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1231348696575162</v>
+        <v>0.1217255477019798</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1987405394639327</v>
+        <v>0.1928437847241644</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -3733,19 +3733,19 @@
         <v>67472</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53310</v>
+        <v>53368</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83590</v>
+        <v>85283</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2145680179919135</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1695326851515722</v>
+        <v>0.1697157965131039</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2658258064548563</v>
+        <v>0.271210886846276</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>125</v>
@@ -3754,19 +3754,19 @@
         <v>135886</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114560</v>
+        <v>113716</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159019</v>
+        <v>157706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1807806101980336</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1524089277591775</v>
+        <v>0.1512858867776684</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2115562913772122</v>
+        <v>0.2098084094439906</v>
       </c>
     </row>
     <row r="8">
@@ -3858,19 +3858,19 @@
         <v>32079</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21195</v>
+        <v>21642</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>44957</v>
+        <v>45542</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07659755068739169</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0506089757399909</v>
+        <v>0.0516764324559498</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1073481466921744</v>
+        <v>0.1087436612190817</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3879,19 +3879,19 @@
         <v>7666</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3042</v>
+        <v>3072</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15042</v>
+        <v>15174</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02267871701019043</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009000533201000832</v>
+        <v>0.009087724281368975</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04450185037583164</v>
+        <v>0.04489124887341368</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>37</v>
@@ -3900,19 +3900,19 @@
         <v>39744</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28205</v>
+        <v>29137</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>55845</v>
+        <v>54843</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05251593045165126</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03726857450565602</v>
+        <v>0.03849965083076365</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07379070007123285</v>
+        <v>0.0724656074642976</v>
       </c>
     </row>
     <row r="10">
@@ -3929,19 +3929,19 @@
         <v>109176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91158</v>
+        <v>90251</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130051</v>
+        <v>129540</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2606897718516706</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2176664106987819</v>
+        <v>0.2155011076217904</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3105340129990556</v>
+        <v>0.309314788764289</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3950,19 +3950,19 @@
         <v>34180</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23041</v>
+        <v>23967</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47055</v>
+        <v>48698</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.101120086551574</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06816640086489718</v>
+        <v>0.07090725958153041</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1392123245628703</v>
+        <v>0.1440715309407031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -3971,19 +3971,19 @@
         <v>143356</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120960</v>
+        <v>118968</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>166823</v>
+        <v>167236</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1894216026338642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1598290162825935</v>
+        <v>0.1571971540855124</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2204302519227105</v>
+        <v>0.2209756111423536</v>
       </c>
     </row>
     <row r="11">
@@ -4000,19 +4000,19 @@
         <v>202615</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>180889</v>
+        <v>182443</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>224934</v>
+        <v>226893</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4838020435633046</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4319246584555878</v>
+        <v>0.4356360190828053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.537096000712201</v>
+        <v>0.5417726970787055</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>189</v>
@@ -4021,19 +4021,19 @@
         <v>209813</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>191002</v>
+        <v>190697</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>226694</v>
+        <v>226817</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6207295420150103</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5650772981161435</v>
+        <v>0.5641751677815948</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6706692318372168</v>
+        <v>0.6710334964753811</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>370</v>
@@ -4042,19 +4042,19 @@
         <v>412428</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>383222</v>
+        <v>383900</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>444318</v>
+        <v>442596</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5449575952075566</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5063663332997239</v>
+        <v>0.5072616403897716</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5870940957764247</v>
+        <v>0.5848189075794494</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>74927</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59370</v>
+        <v>59722</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92261</v>
+        <v>95399</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1789106338976331</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1417635868377796</v>
+        <v>0.1426047908755323</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2203001772430528</v>
+        <v>0.227793856847265</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>80</v>
@@ -4092,19 +4092,19 @@
         <v>86352</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>71820</v>
+        <v>71410</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>105258</v>
+        <v>104041</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2554716544232253</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2124771576586456</v>
+        <v>0.2112662339635831</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3114032821993916</v>
+        <v>0.3078039018206206</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>147</v>
@@ -4113,19 +4113,19 @@
         <v>161279</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>138343</v>
+        <v>138799</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>185807</v>
+        <v>186143</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.213104871706928</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.182797501949616</v>
+        <v>0.1833999075245088</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2455141719539572</v>
+        <v>0.24595856134607</v>
       </c>
     </row>
     <row r="13">
@@ -4217,19 +4217,19 @@
         <v>42611</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30403</v>
+        <v>31375</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57208</v>
+        <v>57222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0677959060800544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04837310743129756</v>
+        <v>0.04991960717238292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09102117916169558</v>
+        <v>0.09104203746750718</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -4238,19 +4238,19 @@
         <v>6030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2019</v>
+        <v>2072</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12329</v>
+        <v>13018</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0231812297296827</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007761083090535746</v>
+        <v>0.007965061952109293</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04739732279744092</v>
+        <v>0.05004571555978327</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>46</v>
@@ -4259,19 +4259,19 @@
         <v>48641</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36382</v>
+        <v>35908</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>64848</v>
+        <v>65257</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0547360671772836</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04094054889622585</v>
+        <v>0.04040799815792735</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07297376631527781</v>
+        <v>0.07343409561707559</v>
       </c>
     </row>
     <row r="15">
@@ -4288,19 +4288,19 @@
         <v>92560</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>75618</v>
+        <v>75645</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>113780</v>
+        <v>113195</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1472669428607482</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1203123023930576</v>
+        <v>0.1203541019102702</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.181028915907971</v>
+        <v>0.1800980226793208</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -4309,19 +4309,19 @@
         <v>16508</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10256</v>
+        <v>10072</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26879</v>
+        <v>25993</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06345911531907546</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03942566157857301</v>
+        <v>0.03871883421812185</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1033307057234231</v>
+        <v>0.09992212596815393</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>103</v>
@@ -4330,19 +4330,19 @@
         <v>109067</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>91459</v>
+        <v>91888</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>129952</v>
+        <v>130539</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1227342819513673</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1029193486110498</v>
+        <v>0.1034019702048053</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1462355141232596</v>
+        <v>0.1468961569277755</v>
       </c>
     </row>
     <row r="16">
@@ -4359,19 +4359,19 @@
         <v>333831</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>308073</v>
+        <v>307498</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>361080</v>
+        <v>358795</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5311404944829079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.490158120164768</v>
+        <v>0.4892422198777018</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5744949038122384</v>
+        <v>0.5708594753015049</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -4380,19 +4380,19 @@
         <v>146411</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>130545</v>
+        <v>128755</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>162497</v>
+        <v>162023</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5628414838920512</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5018455184738494</v>
+        <v>0.4949646248650937</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.62467885209486</v>
+        <v>0.622856398704878</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>451</v>
@@ -4401,19 +4401,19 @@
         <v>480243</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>451173</v>
+        <v>449159</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>512346</v>
+        <v>507666</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5404201721273341</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5077081800058186</v>
+        <v>0.5054419580241682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5765464446106892</v>
+        <v>0.5712795576284516</v>
       </c>
     </row>
     <row r="17">
@@ -4430,19 +4430,19 @@
         <v>159516</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>137324</v>
+        <v>137238</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182649</v>
+        <v>183441</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2537966565762896</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2184888058454377</v>
+        <v>0.2183525109783125</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2906018742747736</v>
+        <v>0.2918635121302734</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>86</v>
@@ -4451,19 +4451,19 @@
         <v>91180</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75070</v>
+        <v>75860</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>106140</v>
+        <v>107091</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3505181710591906</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2885881130170856</v>
+        <v>0.2916254299313952</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4080276331822236</v>
+        <v>0.411685134970831</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>234</v>
@@ -4472,19 +4472,19 @@
         <v>250696</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>225286</v>
+        <v>221582</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>280443</v>
+        <v>279115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.282109478744015</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2535162696924831</v>
+        <v>0.2493478791980171</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3155841925583456</v>
+        <v>0.3140902286332011</v>
       </c>
     </row>
     <row r="18">
@@ -4576,19 +4576,19 @@
         <v>76981</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61489</v>
+        <v>60310</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>94345</v>
+        <v>95976</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06646928089312865</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05309264174481489</v>
+        <v>0.05207438071542179</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08146209871553292</v>
+        <v>0.08287048193904697</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -4597,19 +4597,19 @@
         <v>11877</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6255</v>
+        <v>5943</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22098</v>
+        <v>22611</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01549201004230624</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008158220183045274</v>
+        <v>0.007751963547864647</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02882343509855869</v>
+        <v>0.02949303775918123</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>83</v>
@@ -4618,19 +4618,19 @@
         <v>88858</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71193</v>
+        <v>71072</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109364</v>
+        <v>110715</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04616483982769998</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03698710086375727</v>
+        <v>0.03692422264977162</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05681810099189558</v>
+        <v>0.05751992749589322</v>
       </c>
     </row>
     <row r="20">
@@ -4647,19 +4647,19 @@
         <v>155300</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>132258</v>
+        <v>134231</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>177685</v>
+        <v>181997</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.134093787424022</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1141980522370492</v>
+        <v>0.1159012743998671</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1534214211201864</v>
+        <v>0.1571448358850135</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>52</v>
@@ -4668,19 +4668,19 @@
         <v>56084</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>42572</v>
+        <v>43057</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72928</v>
+        <v>72574</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07315371598368979</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05552990534864557</v>
+        <v>0.05616224019684889</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09512528344316977</v>
+        <v>0.09466264543069028</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>199</v>
@@ -4689,19 +4689,19 @@
         <v>211384</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>184105</v>
+        <v>186096</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>242354</v>
+        <v>240803</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1098211249524633</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09564875588653844</v>
+        <v>0.09668319216352901</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1259107365237482</v>
+        <v>0.1251050001981819</v>
       </c>
     </row>
     <row r="21">
@@ -4718,19 +4718,19 @@
         <v>633166</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>600431</v>
+        <v>595045</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>670130</v>
+        <v>667188</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5467059221350793</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5184408309214279</v>
+        <v>0.5137900183094215</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5786220867610733</v>
+        <v>0.5760816737681822</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>430</v>
@@ -4739,19 +4739,19 @@
         <v>462705</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>434936</v>
+        <v>434221</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>489398</v>
+        <v>490842</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6035355122678676</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5673155989581722</v>
+        <v>0.5663828567240499</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6383536291836757</v>
+        <v>0.6402366824424699</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1020</v>
@@ -4760,19 +4760,19 @@
         <v>1095872</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1052397</v>
+        <v>1053461</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1141134</v>
+        <v>1142800</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5693413642520253</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5467550761289092</v>
+        <v>0.5473076563856358</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5928567155941313</v>
+        <v>0.5937223974513874</v>
       </c>
     </row>
     <row r="22">
@@ -4789,19 +4789,19 @@
         <v>292700</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>264365</v>
+        <v>265225</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>327665</v>
+        <v>327887</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2527310095477701</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2282657113179206</v>
+        <v>0.2290080343045364</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2829219002226119</v>
+        <v>0.2831131204494465</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>219</v>
@@ -4810,19 +4810,19 @@
         <v>235991</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>210853</v>
+        <v>210173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>264439</v>
+        <v>263634</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3078187617061363</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2750286240510304</v>
+        <v>0.2741421429025661</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.344925043886529</v>
+        <v>0.3438749647622821</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>491</v>
@@ -4831,19 +4831,19 @@
         <v>528692</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>487993</v>
+        <v>488982</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>569503</v>
+        <v>566141</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2746726709678114</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2535282739382617</v>
+        <v>0.2540419796234348</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2958756476697729</v>
+        <v>0.2941289551326242</v>
       </c>
     </row>
     <row r="23">
@@ -4935,19 +4935,19 @@
         <v>35556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26008</v>
+        <v>25404</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49703</v>
+        <v>48808</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06963707595532224</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0509369845958363</v>
+        <v>0.04975308375616738</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09734280572371988</v>
+        <v>0.09558964951417012</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -4956,19 +4956,19 @@
         <v>4105</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11056</v>
+        <v>9655</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.005390654084504373</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001393373341739632</v>
+        <v>0.001395095931363285</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01451876694022976</v>
+        <v>0.01267870416845014</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>40</v>
@@ -4977,19 +4977,19 @@
         <v>39662</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>28698</v>
+        <v>28342</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>53679</v>
+        <v>53590</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03117755792006941</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02255902694917029</v>
+        <v>0.02227955019997599</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04219662652508107</v>
+        <v>0.04212683606580983</v>
       </c>
     </row>
     <row r="25">
@@ -5006,19 +5006,19 @@
         <v>54974</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41584</v>
+        <v>42338</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70798</v>
+        <v>69428</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1076672837000756</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08144203724251867</v>
+        <v>0.08291848795371018</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1386566001410303</v>
+        <v>0.1359752024195866</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -5027,19 +5027,19 @@
         <v>32680</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22880</v>
+        <v>22289</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45782</v>
+        <v>44941</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04291348774760557</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03004459980691869</v>
+        <v>0.02926944778994318</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06011956327868997</v>
+        <v>0.05901407057895919</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -5048,19 +5048,19 @@
         <v>87654</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69468</v>
+        <v>71906</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>106947</v>
+        <v>108122</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06890403882563541</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0546082651146436</v>
+        <v>0.05652475505811423</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08406976943927803</v>
+        <v>0.08499353270439866</v>
       </c>
     </row>
     <row r="26">
@@ -5077,19 +5077,19 @@
         <v>277027</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>255023</v>
+        <v>255386</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>300012</v>
+        <v>299043</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5425552697943501</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4994604871141968</v>
+        <v>0.5001722462844973</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5875712305028109</v>
+        <v>0.585673959729211</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>407</v>
@@ -5098,19 +5098,19 @@
         <v>444376</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>416501</v>
+        <v>415275</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>473360</v>
+        <v>471497</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5835370585519623</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5469319620887627</v>
+        <v>0.5453220119296133</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6215976592712856</v>
+        <v>0.6191504286150205</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>668</v>
@@ -5119,19 +5119,19 @@
         <v>721403</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>686232</v>
+        <v>686202</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>756373</v>
+        <v>761102</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5670879954768713</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5394405865441004</v>
+        <v>0.5394166450603775</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.594578060696628</v>
+        <v>0.5982950438423275</v>
       </c>
     </row>
     <row r="27">
@@ -5148,19 +5148,19 @@
         <v>143039</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>120670</v>
+        <v>122592</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>164389</v>
+        <v>164125</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.280140370550252</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2363326206601802</v>
+        <v>0.2400961726012788</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3219557708253185</v>
+        <v>0.321438922875068</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>261</v>
@@ -5169,19 +5169,19 @@
         <v>280361</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>252990</v>
+        <v>251912</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>307588</v>
+        <v>306042</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3681587996159278</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3322156810176271</v>
+        <v>0.3308012460308956</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.403911779496449</v>
+        <v>0.4018813804449071</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>397</v>
@@ -5190,19 +5190,19 @@
         <v>423400</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>389393</v>
+        <v>386773</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>458889</v>
+        <v>457944</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3328304077774239</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3060978527085086</v>
+        <v>0.3040386855768602</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3607284651183777</v>
+        <v>0.3599852046164602</v>
       </c>
     </row>
     <row r="28">
@@ -5294,19 +5294,19 @@
         <v>52561</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>40773</v>
+        <v>41335</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>68087</v>
+        <v>66549</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1969429830796953</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.152776073600899</v>
+        <v>0.1548820149256256</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2551200488229688</v>
+        <v>0.2493584904174439</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -5315,19 +5315,19 @@
         <v>25288</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16048</v>
+        <v>16666</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>37042</v>
+        <v>36687</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02281770247725476</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01448041642110135</v>
+        <v>0.01503779958342913</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03342403477284844</v>
+        <v>0.0331032357143537</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>78</v>
@@ -5336,19 +5336,19 @@
         <v>77848</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>61656</v>
+        <v>62799</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>95880</v>
+        <v>97156</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05661138463107207</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04483648963309303</v>
+        <v>0.04566779919419173</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06972373154688602</v>
+        <v>0.07065190697364951</v>
       </c>
     </row>
     <row r="30">
@@ -5365,19 +5365,19 @@
         <v>93749</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>78896</v>
+        <v>79137</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>110887</v>
+        <v>109056</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3512734939645035</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2956195937704286</v>
+        <v>0.2965228562156972</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4154895586964403</v>
+        <v>0.4086312285720854</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>52</v>
@@ -5386,19 +5386,19 @@
         <v>54521</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>40166</v>
+        <v>41754</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>70112</v>
+        <v>69838</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04919561764977257</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03624270001158632</v>
+        <v>0.03767590863208687</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06326367700223062</v>
+        <v>0.06301580675718647</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>145</v>
@@ -5407,19 +5407,19 @@
         <v>148270</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>126856</v>
+        <v>126249</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>173225</v>
+        <v>172719</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1078219337284102</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09224958160330206</v>
+        <v>0.09180818041687977</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1259696893770179</v>
+        <v>0.125601536260649</v>
       </c>
     </row>
     <row r="31">
@@ -5436,19 +5436,19 @@
         <v>89440</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>73720</v>
+        <v>74696</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>105710</v>
+        <v>105920</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3351311020428925</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2762261582740906</v>
+        <v>0.2798847735045604</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3960935126881416</v>
+        <v>0.396879956958912</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>652</v>
@@ -5457,19 +5457,19 @@
         <v>691990</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>658833</v>
+        <v>657337</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>724674</v>
+        <v>721767</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6243965091357877</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5944787669369336</v>
+        <v>0.5931287289228252</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.653888232997104</v>
+        <v>0.6512653253477275</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>740</v>
@@ -5478,19 +5478,19 @@
         <v>781430</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>742537</v>
+        <v>745977</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>818671</v>
+        <v>818173</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5682567964440347</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5399736463689164</v>
+        <v>0.5424752726461797</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5953380215638633</v>
+        <v>0.5949757411999141</v>
       </c>
     </row>
     <row r="32">
@@ -5507,19 +5507,19 @@
         <v>31132</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21898</v>
+        <v>21751</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43852</v>
+        <v>44190</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1166524209129088</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08205101010648795</v>
+        <v>0.08150157826350569</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1643120258265187</v>
+        <v>0.1655797723556583</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>315</v>
@@ -5528,19 +5528,19 @@
         <v>336455</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>307155</v>
+        <v>308049</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>370886</v>
+        <v>367847</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.303590170737185</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2771524445650493</v>
+        <v>0.277958621369004</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3346582910625548</v>
+        <v>0.3319155278524619</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>345</v>
@@ -5549,19 +5549,19 @@
         <v>367587</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>332047</v>
+        <v>337888</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>401848</v>
+        <v>402387</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.267309885196483</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2414647286159799</v>
+        <v>0.2457123097221054</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2922245303727375</v>
+        <v>0.2926158972136833</v>
       </c>
     </row>
     <row r="33">
@@ -5653,19 +5653,19 @@
         <v>286358</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>252995</v>
+        <v>254473</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>319665</v>
+        <v>321036</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08372654357790785</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07397184034657951</v>
+        <v>0.0744041357636676</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09346507441932529</v>
+        <v>0.0938658778546357</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>64</v>
@@ -5674,19 +5674,19 @@
         <v>70191</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>54242</v>
+        <v>54118</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>88966</v>
+        <v>89147</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01977751564669108</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01528367873299082</v>
+        <v>0.01524868804049502</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02506767906711169</v>
+        <v>0.02511865284951388</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>344</v>
@@ -5695,19 +5695,19 @@
         <v>356548</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>318507</v>
+        <v>323121</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>392025</v>
+        <v>394771</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05116075023448583</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04570216012118948</v>
+        <v>0.04636427691936768</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05625125788464798</v>
+        <v>0.05664519060913358</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>598291</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>550072</v>
+        <v>552548</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>646045</v>
+        <v>648040</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1749311234224277</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1608325721577295</v>
+        <v>0.1615565083409618</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1888936624331686</v>
+        <v>0.1894770161859237</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>215</v>
@@ -5745,19 +5745,19 @@
         <v>232600</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>205354</v>
+        <v>205531</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>264114</v>
+        <v>265516</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06553906786803392</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05786210948546773</v>
+        <v>0.0579118922845463</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07441873646955212</v>
+        <v>0.0748136862451628</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>777</v>
@@ -5766,19 +5766,19 @@
         <v>830891</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>773173</v>
+        <v>774196</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>889337</v>
+        <v>888278</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1192236452973768</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1109417295979493</v>
+        <v>0.1110885649006219</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1276100136945155</v>
+        <v>0.1274580618618768</v>
       </c>
     </row>
     <row r="36">
@@ -5795,19 +5795,19 @@
         <v>1765775</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1701039</v>
+        <v>1709999</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1823619</v>
+        <v>1827395</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5162854862487055</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.49735757367615</v>
+        <v>0.4999775861341092</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5331983400968865</v>
+        <v>0.5343023450854597</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1987</v>
@@ -5816,19 +5816,19 @@
         <v>2148425</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2082948</v>
+        <v>2090212</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2206516</v>
+        <v>2204951</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6053559925890977</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.586906578568113</v>
+        <v>0.5889533380628357</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6217239472177308</v>
+        <v>0.6212831733011754</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3632</v>
@@ -5837,19 +5837,19 @@
         <v>3914200</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3824478</v>
+        <v>3827968</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4000733</v>
+        <v>4003239</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5616442946045588</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5487702113135559</v>
+        <v>0.5492708852204102</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5740608341416504</v>
+        <v>0.5744204373555803</v>
       </c>
     </row>
     <row r="37">
@@ -5866,19 +5866,19 @@
         <v>769729</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>722543</v>
+        <v>715633</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>824941</v>
+        <v>824058</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2250568467509589</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2112604704695379</v>
+        <v>0.2092402573664927</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2412001739854797</v>
+        <v>0.2409418981113467</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1023</v>
@@ -5887,19 +5887,19 @@
         <v>1097812</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1040785</v>
+        <v>1042143</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1156748</v>
+        <v>1152061</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3093274238961773</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2932592778977116</v>
+        <v>0.2936419447501546</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3259336795741409</v>
+        <v>0.3246130012438368</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1739</v>
@@ -5908,19 +5908,19 @@
         <v>1867540</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1794300</v>
+        <v>1790146</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1953067</v>
+        <v>1943514</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2679713098635785</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2574621830126276</v>
+        <v>0.2568660497711146</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2802434228465884</v>
+        <v>0.2788727395731585</v>
       </c>
     </row>
     <row r="38">
@@ -6254,19 +6254,19 @@
         <v>30043</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20285</v>
+        <v>20524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41910</v>
+        <v>44927</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0700155921668824</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04727406946528642</v>
+        <v>0.04783017125430088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09767125499371497</v>
+        <v>0.1047013296786034</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -6275,19 +6275,19 @@
         <v>8991</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4154</v>
+        <v>4607</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17195</v>
+        <v>16097</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02590595745245059</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0119688042969741</v>
+        <v>0.01327350424097217</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0495458142165198</v>
+        <v>0.04638293951657974</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -6296,19 +6296,19 @@
         <v>39034</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27739</v>
+        <v>27299</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52896</v>
+        <v>52851</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05029192282257982</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03573884547250647</v>
+        <v>0.03517230136869118</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06815204339525294</v>
+        <v>0.06809435981736005</v>
       </c>
     </row>
     <row r="5">
@@ -6325,19 +6325,19 @@
         <v>102414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>85753</v>
+        <v>83467</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>119735</v>
+        <v>120832</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2386759519607053</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1998468291845475</v>
+        <v>0.1945199179305763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2790426820477264</v>
+        <v>0.2815986608777786</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -6346,19 +6346,19 @@
         <v>58055</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45744</v>
+        <v>44011</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73198</v>
+        <v>72388</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1672785030032923</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1318067347113546</v>
+        <v>0.1268134954861921</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2109128768732856</v>
+        <v>0.2085783470101279</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -6367,19 +6367,19 @@
         <v>160469</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>137990</v>
+        <v>137541</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>183303</v>
+        <v>183583</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2067505079079575</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1777880560349046</v>
+        <v>0.1772094241091852</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2361705205292936</v>
+        <v>0.2365308204734007</v>
       </c>
     </row>
     <row r="6">
@@ -6396,19 +6396,19 @@
         <v>188571</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>167447</v>
+        <v>167806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208667</v>
+        <v>211694</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4394655079802909</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3902359244291186</v>
+        <v>0.391072861231806</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4862980137981266</v>
+        <v>0.4933540279892671</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>175</v>
@@ -6417,19 +6417,19 @@
         <v>182232</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>164341</v>
+        <v>164660</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>201643</v>
+        <v>201681</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5250820824757712</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4735299751398563</v>
+        <v>0.4744494619816196</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5810115777242815</v>
+        <v>0.5811212871951319</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>345</v>
@@ -6438,19 +6438,19 @@
         <v>370803</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>342594</v>
+        <v>342717</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>399327</v>
+        <v>400496</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4777490489044737</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4414032351867199</v>
+        <v>0.4415616148978303</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5144988775192327</v>
+        <v>0.5160056808111171</v>
       </c>
     </row>
     <row r="7">
@@ -6467,19 +6467,19 @@
         <v>108064</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>89875</v>
+        <v>89873</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>128012</v>
+        <v>126477</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2518429478921213</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2094541896006822</v>
+        <v>0.2094490269940829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2983324114597412</v>
+        <v>0.2947538250426479</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -6488,19 +6488,19 @@
         <v>97777</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>80934</v>
+        <v>80541</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114202</v>
+        <v>114846</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.281733457068486</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2332026815189688</v>
+        <v>0.2320706283860743</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3290609135110366</v>
+        <v>0.330916591595672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>196</v>
@@ -6509,19 +6509,19 @@
         <v>205841</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>181576</v>
+        <v>183320</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>230329</v>
+        <v>232549</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.265208520364989</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2339458653242332</v>
+        <v>0.2361920008524145</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2967592047531784</v>
+        <v>0.2996198737541925</v>
       </c>
     </row>
     <row r="8">
@@ -6613,19 +6613,19 @@
         <v>28337</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18607</v>
+        <v>18528</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>39755</v>
+        <v>40480</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0751194203809545</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04932539453495715</v>
+        <v>0.04911545025063872</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.105387730957133</v>
+        <v>0.1073096652109868</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -6634,19 +6634,19 @@
         <v>14666</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8232</v>
+        <v>8261</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23797</v>
+        <v>23619</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03939599806818572</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02211338186158283</v>
+        <v>0.02219022800314795</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06392382294035523</v>
+        <v>0.06344459283251654</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>40</v>
@@ -6655,19 +6655,19 @@
         <v>43003</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30965</v>
+        <v>31078</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>57448</v>
+        <v>58903</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05737576393018325</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04131450335341571</v>
+        <v>0.04146497956674251</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07664877307533498</v>
+        <v>0.07859038882698766</v>
       </c>
     </row>
     <row r="10">
@@ -6684,19 +6684,19 @@
         <v>92705</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74456</v>
+        <v>76947</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111023</v>
+        <v>111592</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2457543525049265</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1973768043783098</v>
+        <v>0.2039818361333111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2943125809945341</v>
+        <v>0.2958227268743434</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -6705,19 +6705,19 @@
         <v>52833</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39946</v>
+        <v>39689</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69447</v>
+        <v>66928</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1419198091360614</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1073022337644249</v>
+        <v>0.1066131583995292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1865485530941282</v>
+        <v>0.1797832896258687</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -6726,19 +6726,19 @@
         <v>145538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124902</v>
+        <v>123589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>168826</v>
+        <v>168083</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1941802214172308</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1666468717459483</v>
+        <v>0.1648952320555674</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2252514399744316</v>
+        <v>0.2242598072853884</v>
       </c>
     </row>
     <row r="11">
@@ -6755,19 +6755,19 @@
         <v>157641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>138081</v>
+        <v>136841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>177786</v>
+        <v>177119</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4178931626439752</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3660424604647409</v>
+        <v>0.3627552784573426</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.471296113004566</v>
+        <v>0.4695277458136591</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>177</v>
@@ -6776,19 +6776,19 @@
         <v>186056</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>166805</v>
+        <v>165870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>206273</v>
+        <v>205454</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4997841642475304</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4480707042098979</v>
+        <v>0.445559850982559</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5540901942095017</v>
+        <v>0.55188945746401</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>325</v>
@@ -6797,19 +6797,19 @@
         <v>343697</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>315873</v>
+        <v>314427</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>370295</v>
+        <v>370437</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4585680393716641</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4214451147800017</v>
+        <v>0.4195159806717589</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.494056320179549</v>
+        <v>0.4942449421891433</v>
       </c>
     </row>
     <row r="12">
@@ -6826,19 +6826,19 @@
         <v>98544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82258</v>
+        <v>82244</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116159</v>
+        <v>118226</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2612330644701438</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2180591533483325</v>
+        <v>0.2180219526102965</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.307928495204116</v>
+        <v>0.3134077763865293</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>112</v>
@@ -6847,19 +6847,19 @@
         <v>118718</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>100329</v>
+        <v>101152</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>136863</v>
+        <v>136982</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3189000285482225</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2695041080675699</v>
+        <v>0.2717143665146987</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3676416253330557</v>
+        <v>0.3679620521438767</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>207</v>
@@ -6868,19 +6868,19 @@
         <v>217262</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>193395</v>
+        <v>192797</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>241371</v>
+        <v>244883</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2898759752809218</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2580316033566665</v>
+        <v>0.2572346180929527</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3220420384236745</v>
+        <v>0.3267286086658634</v>
       </c>
     </row>
     <row r="13">
@@ -6972,19 +6972,19 @@
         <v>25094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16774</v>
+        <v>16692</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36202</v>
+        <v>35842</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04808016180205583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03213896575494958</v>
+        <v>0.03198150807557945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06936450184767677</v>
+        <v>0.06867372321545481</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6118</v>
+        <v>6141</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01207704070188752</v>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03682878061786633</v>
+        <v>0.03696361033830517</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -7014,19 +7014,19 @@
         <v>27100</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18176</v>
+        <v>17609</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39015</v>
+        <v>38588</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03938739698611645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02641781971638027</v>
+        <v>0.0255933176059252</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05670559737108308</v>
+        <v>0.05608447299134224</v>
       </c>
     </row>
     <row r="15">
@@ -7043,19 +7043,19 @@
         <v>67062</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>53831</v>
+        <v>52072</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>83966</v>
+        <v>81924</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1284923642768659</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.103141879446846</v>
+        <v>0.09977179318093614</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1608804453190802</v>
+        <v>0.15696810065221</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>15</v>
@@ -7064,19 +7064,19 @@
         <v>15058</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8509</v>
+        <v>9066</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>23397</v>
+        <v>23900</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09064642697004478</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05122204262856603</v>
+        <v>0.05457400604412386</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1408416767240479</v>
+        <v>0.1438722972665706</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>80</v>
@@ -7085,19 +7085,19 @@
         <v>82120</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>66430</v>
+        <v>66580</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>101024</v>
+        <v>102237</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1193546611501933</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09655080381741159</v>
+        <v>0.09676756729780112</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1468290126446261</v>
+        <v>0.1485927737056848</v>
       </c>
     </row>
     <row r="16">
@@ -7114,19 +7114,19 @@
         <v>237648</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>214808</v>
+        <v>212456</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>259467</v>
+        <v>259615</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.455340066298884</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4115776118100332</v>
+        <v>0.4070715379916123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4971443262730273</v>
+        <v>0.4974277565108664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -7135,19 +7135,19 @@
         <v>79606</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66301</v>
+        <v>65582</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93317</v>
+        <v>93361</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4791995606720608</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3991057807003468</v>
+        <v>0.3947806856915447</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5617328883550988</v>
+        <v>0.5619982107022773</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>304</v>
@@ -7156,19 +7156,19 @@
         <v>317254</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>290690</v>
+        <v>291138</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>344552</v>
+        <v>344658</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.461100816113774</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4224920607039899</v>
+        <v>0.4231433303738201</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.500776109187607</v>
+        <v>0.5009307794284399</v>
       </c>
     </row>
     <row r="17">
@@ -7185,19 +7185,19 @@
         <v>192110</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>168581</v>
+        <v>170234</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>213832</v>
+        <v>215565</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3680874076221942</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3230054225704027</v>
+        <v>0.3261728789975256</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4097073653014295</v>
+        <v>0.4130270999517213</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -7206,19 +7206,19 @@
         <v>69452</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>56652</v>
+        <v>56385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>83057</v>
+        <v>83691</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4180769716560069</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3410274249569772</v>
+        <v>0.3394145638310535</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4999757755667401</v>
+        <v>0.5037876513331953</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>244</v>
@@ -7227,19 +7227,19 @@
         <v>261562</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>233112</v>
+        <v>235274</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>287143</v>
+        <v>289802</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3801571257499163</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3388080508411251</v>
+        <v>0.3419501215318867</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.417337683596206</v>
+        <v>0.421201981342076</v>
       </c>
     </row>
     <row r="18">
@@ -7331,19 +7331,19 @@
         <v>70768</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55033</v>
+        <v>57108</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87647</v>
+        <v>89218</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06155690337458464</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04786986315886026</v>
+        <v>0.04967517017443905</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07623906347076753</v>
+        <v>0.07760545928994683</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -7352,19 +7352,19 @@
         <v>18893</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11926</v>
+        <v>11766</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29197</v>
+        <v>28874</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02287683454417376</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01444042395394627</v>
+        <v>0.01424652856687156</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03535259702987009</v>
+        <v>0.03496202129766523</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>88</v>
@@ -7373,19 +7373,19 @@
         <v>89662</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71747</v>
+        <v>73737</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110022</v>
+        <v>108699</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04538646300297739</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03631808358491022</v>
+        <v>0.03732557900744175</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05569260914354155</v>
+        <v>0.05502337509951207</v>
       </c>
     </row>
     <row r="20">
@@ -7402,19 +7402,19 @@
         <v>143604</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123074</v>
+        <v>119410</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>166622</v>
+        <v>165271</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1249121703560293</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1070542904164258</v>
+        <v>0.1038678955275211</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1449341686175477</v>
+        <v>0.1437589891501806</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>83</v>
@@ -7423,19 +7423,19 @@
         <v>83460</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>66099</v>
+        <v>65769</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>101992</v>
+        <v>100968</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1010564659536293</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08003521826406569</v>
+        <v>0.07963506914402674</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1234957793741559</v>
+        <v>0.1222552237822078</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>219</v>
@@ -7444,19 +7444,19 @@
         <v>227064</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>200655</v>
+        <v>199950</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>254997</v>
+        <v>256778</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1149391465940238</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1015710334800297</v>
+        <v>0.1012142653194742</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1290788034640594</v>
+        <v>0.1299805627800497</v>
       </c>
     </row>
     <row r="21">
@@ -7473,19 +7473,19 @@
         <v>491498</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>458085</v>
+        <v>458362</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>524733</v>
+        <v>524717</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4275240817813146</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.398460472647812</v>
+        <v>0.3987008091991613</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4564333756155051</v>
+        <v>0.4564192152579535</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>364</v>
@@ -7494,19 +7494,19 @@
         <v>370942</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>344217</v>
+        <v>340771</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>400232</v>
+        <v>398183</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4491497130825089</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4167899116436634</v>
+        <v>0.4126176603811592</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4846154154039445</v>
+        <v>0.482133748016801</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>836</v>
@@ -7515,19 +7515,19 @@
         <v>862440</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>815234</v>
+        <v>822273</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>908769</v>
+        <v>908996</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4365648097848643</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4126694605036896</v>
+        <v>0.4162324953019179</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4600163655039326</v>
+        <v>0.460131578392498</v>
       </c>
     </row>
     <row r="22">
@@ -7544,19 +7544,19 @@
         <v>443768</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>412374</v>
+        <v>414347</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>477816</v>
+        <v>481128</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3860068444880714</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.358699365821312</v>
+        <v>0.3604150745568641</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4156232748623434</v>
+        <v>0.4185038480336584</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>332</v>
@@ -7565,19 +7565,19 @@
         <v>352580</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>324677</v>
+        <v>324863</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>380663</v>
+        <v>382061</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.426916986419688</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3931299822874428</v>
+        <v>0.3933552038415186</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4609207115699053</v>
+        <v>0.4626132328497163</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>758</v>
@@ -7586,19 +7586,19 @@
         <v>796349</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>749984</v>
+        <v>754873</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>839250</v>
+        <v>843905</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4031095806181345</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3796401647212052</v>
+        <v>0.38211469430688</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4248262682222896</v>
+        <v>0.4271822841978838</v>
       </c>
     </row>
     <row r="23">
@@ -7690,19 +7690,19 @@
         <v>28697</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18569</v>
+        <v>18181</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40628</v>
+        <v>40859</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04623248555715638</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02991583705793336</v>
+        <v>0.02929140044115496</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06545452905848184</v>
+        <v>0.06582675256295407</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -7711,19 +7711,19 @@
         <v>8803</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16440</v>
+        <v>15912</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01192412946695082</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.005421810625781801</v>
+        <v>0.005416685787767453</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02226893646578696</v>
+        <v>0.02155399369201264</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>35</v>
@@ -7732,19 +7732,19 @@
         <v>37500</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27085</v>
+        <v>25640</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>50723</v>
+        <v>50383</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02759460904476229</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01993114408750757</v>
+        <v>0.01886720352667913</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03732509216227489</v>
+        <v>0.03707529442907831</v>
       </c>
     </row>
     <row r="25">
@@ -7761,19 +7761,19 @@
         <v>70847</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55537</v>
+        <v>56669</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86595</v>
+        <v>86421</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1141391854851125</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08947320868958372</v>
+        <v>0.09129697899655473</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1395099078300769</v>
+        <v>0.1392307154836645</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -7782,19 +7782,19 @@
         <v>53027</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40195</v>
+        <v>40674</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68861</v>
+        <v>70313</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07182869584286436</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05444625100534055</v>
+        <v>0.05509528637098247</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09327645369157793</v>
+        <v>0.09524329487873433</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>117</v>
@@ -7803,19 +7803,19 @@
         <v>123874</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>103363</v>
+        <v>104556</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>145476</v>
+        <v>148110</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09115418209241789</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07606101186639225</v>
+        <v>0.07693867846313053</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1070504708741521</v>
+        <v>0.1089888932213403</v>
       </c>
     </row>
     <row r="26">
@@ -7832,19 +7832,19 @@
         <v>267680</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>244144</v>
+        <v>243851</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>291701</v>
+        <v>292428</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4312509727840786</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3933328655576991</v>
+        <v>0.3928610971198508</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4699497093663557</v>
+        <v>0.4711215084927658</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>308</v>
@@ -7853,19 +7853,19 @@
         <v>322154</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>297771</v>
+        <v>292556</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>350959</v>
+        <v>350539</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4363787013514044</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4033500194811226</v>
+        <v>0.3962868733318601</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.475396401585707</v>
+        <v>0.4748287560919915</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>567</v>
@@ -7874,19 +7874,19 @@
         <v>589834</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>549767</v>
+        <v>556423</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>628272</v>
+        <v>631095</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4340365907127143</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.404552884262449</v>
+        <v>0.4094508603037684</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4623218404837935</v>
+        <v>0.4643987365617186</v>
       </c>
     </row>
     <row r="27">
@@ -7903,19 +7903,19 @@
         <v>253482</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>229737</v>
+        <v>229108</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>278007</v>
+        <v>276944</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4083773561736525</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3701219367395363</v>
+        <v>0.3691092254140542</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4478883096131168</v>
+        <v>0.4461762840046694</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>333</v>
@@ -7924,19 +7924,19 @@
         <v>354260</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>324296</v>
+        <v>327457</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>380189</v>
+        <v>381398</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4798684733387804</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4392801847879793</v>
+        <v>0.4435618195044368</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5149913612717943</v>
+        <v>0.5166283173056722</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>577</v>
@@ -7945,19 +7945,19 @@
         <v>607742</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>572680</v>
+        <v>569954</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>645733</v>
+        <v>643371</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4472146181501055</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.421413496536728</v>
+        <v>0.4194074406890321</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4751705462542439</v>
+        <v>0.4734325409758554</v>
       </c>
     </row>
     <row r="28">
@@ -8049,19 +8049,19 @@
         <v>59188</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>46127</v>
+        <v>46234</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>75541</v>
+        <v>74595</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2061245300807582</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1606401618903465</v>
+        <v>0.1610113149094574</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2630756398238568</v>
+        <v>0.2597825569481714</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -8070,19 +8070,19 @@
         <v>21510</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13771</v>
+        <v>13253</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31842</v>
+        <v>30997</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01987976802833269</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01272716989068081</v>
+        <v>0.01224846788943302</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02942794323489913</v>
+        <v>0.02864759660911078</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>77</v>
@@ -8091,19 +8091,19 @@
         <v>80698</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>64478</v>
+        <v>64649</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>100560</v>
+        <v>99543</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05893940245967001</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04709309975352199</v>
+        <v>0.04721733557860405</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07344602682388933</v>
+        <v>0.07270329102641129</v>
       </c>
     </row>
     <row r="30">
@@ -8120,19 +8120,19 @@
         <v>107528</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>91811</v>
+        <v>92179</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>123582</v>
+        <v>124846</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3744720347305717</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3197372149153889</v>
+        <v>0.3210188025677846</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.430382871031458</v>
+        <v>0.4347830200455944</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>78</v>
@@ -8141,19 +8141,19 @@
         <v>79785</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>63012</v>
+        <v>65688</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>98191</v>
+        <v>99610</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07373665321967547</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05823490420071419</v>
+        <v>0.06070877745777582</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09074776400231516</v>
+        <v>0.09205860659404032</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>180</v>
@@ -8162,19 +8162,19 @@
         <v>187313</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>163828</v>
+        <v>161265</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>215905</v>
+        <v>215587</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1368074957654532</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1196552189728003</v>
+        <v>0.1177833576498452</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1576903705394105</v>
+        <v>0.1574579374362726</v>
       </c>
     </row>
     <row r="31">
@@ -8191,19 +8191,19 @@
         <v>69586</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>55861</v>
+        <v>55576</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>84749</v>
+        <v>85030</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2423362093184771</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1945404237492169</v>
+        <v>0.1935462102860628</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2951427551711839</v>
+        <v>0.2961217208889367</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>434</v>
@@ -8212,19 +8212,19 @@
         <v>465786</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>432585</v>
+        <v>429802</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>500000</v>
+        <v>499183</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4304760040493941</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3997918468219838</v>
+        <v>0.3972201795504015</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4620963837323304</v>
+        <v>0.4613412972814118</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>500</v>
@@ -8233,19 +8233,19 @@
         <v>535371</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>500665</v>
+        <v>497247</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>574448</v>
+        <v>574200</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3910189394683891</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3656706447167082</v>
+        <v>0.3631738977603227</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4195594171288423</v>
+        <v>0.4193778178827629</v>
       </c>
     </row>
     <row r="32">
@@ -8262,19 +8262,19 @@
         <v>50844</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>39054</v>
+        <v>38794</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>65049</v>
+        <v>65046</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1770672258701929</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1360078420537641</v>
+        <v>0.1351027985554387</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2265371232753221</v>
+        <v>0.2265283341938867</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>458</v>
@@ -8283,19 +8283,19 @@
         <v>514944</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>480000</v>
+        <v>480965</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>547977</v>
+        <v>552702</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4759075747025978</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4436122196167815</v>
+        <v>0.4445048464514396</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5064363030594182</v>
+        <v>0.5108029404846577</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>507</v>
@@ -8304,19 +8304,19 @@
         <v>565788</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>525577</v>
+        <v>529186</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>600660</v>
+        <v>607282</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4132341623064877</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.383865585403422</v>
+        <v>0.3865013229150258</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4387038404560605</v>
+        <v>0.4435399127175348</v>
       </c>
     </row>
     <row r="33">
@@ -8408,19 +8408,19 @@
         <v>242127</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>211737</v>
+        <v>210421</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>274957</v>
+        <v>276866</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0715139940842749</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06253825746735683</v>
+        <v>0.06214963143482988</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08121074679724173</v>
+        <v>0.08177457884808786</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>75</v>
@@ -8429,19 +8429,19 @@
         <v>74870</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>59853</v>
+        <v>59644</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>93957</v>
+        <v>91401</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02120001567700506</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01694786239335866</v>
+        <v>0.01688862250782775</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02660478785466916</v>
+        <v>0.0258809946340105</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>303</v>
@@ -8450,19 +8450,19 @@
         <v>316996</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>283319</v>
+        <v>284678</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>354606</v>
+        <v>353183</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04582648957870483</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0409579190633703</v>
+        <v>0.04115433079524036</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05126357821102114</v>
+        <v>0.05105775416615303</v>
       </c>
     </row>
     <row r="35">
@@ -8479,19 +8479,19 @@
         <v>584160</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>541835</v>
+        <v>533307</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>631461</v>
+        <v>624222</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1725361835655834</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1600351893882051</v>
+        <v>0.1575165399973874</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1865071228324575</v>
+        <v>0.184369075640752</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>330</v>
@@ -8500,19 +8500,19 @@
         <v>342218</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>304584</v>
+        <v>309530</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>375206</v>
+        <v>380569</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09690189459399408</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08624535474651558</v>
+        <v>0.08764581286313711</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1062425871657908</v>
+        <v>0.1077612762065813</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>881</v>
@@ -8521,19 +8521,19 @@
         <v>926378</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>872470</v>
+        <v>867289</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>985603</v>
+        <v>994052</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1339215440511584</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1261284003964292</v>
+        <v>0.1253793469716201</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1424833868401119</v>
+        <v>0.1437048235170819</v>
       </c>
     </row>
     <row r="36">
@@ -8550,19 +8550,19 @@
         <v>1412624</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1357434</v>
+        <v>1355639</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1470598</v>
+        <v>1468099</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4172296690036308</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4009289742496611</v>
+        <v>0.4003987665473054</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4343527220120273</v>
+        <v>0.433614679512232</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1531</v>
@@ -8571,19 +8571,19 @@
         <v>1606776</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1547020</v>
+        <v>1545875</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1665047</v>
+        <v>1666240</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4549717234426834</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4380512157311245</v>
+        <v>0.4377270114315749</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4714716375044393</v>
+        <v>0.471809252824388</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2877</v>
@@ -8592,19 +8592,19 @@
         <v>3019400</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2938085</v>
+        <v>2935858</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3095056</v>
+        <v>3102812</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4364986519809847</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4247434166323598</v>
+        <v>0.4244213987667648</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4474358003603766</v>
+        <v>0.4485570532084216</v>
       </c>
     </row>
     <row r="37">
@@ -8621,19 +8621,19 @@
         <v>1146812</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1093769</v>
+        <v>1095935</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1209869</v>
+        <v>1206336</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3387201533465109</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.323053498049812</v>
+        <v>0.3236929984336409</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3573444981441975</v>
+        <v>0.356301073969816</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1390</v>
@@ -8642,19 +8642,19 @@
         <v>1507731</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1449049</v>
+        <v>1451217</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1567804</v>
+        <v>1566631</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4269263662863175</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4103099923443811</v>
+        <v>0.4109238875033832</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4439363126196723</v>
+        <v>0.4436042066100006</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2489</v>
@@ -8663,19 +8663,19 @@
         <v>2654544</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2573196</v>
+        <v>2571136</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2731835</v>
+        <v>2742425</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3837533143891521</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3719932732589478</v>
+        <v>0.371695568936428</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3949269034020625</v>
+        <v>0.3964578324477157</v>
       </c>
     </row>
     <row r="38">
@@ -9009,19 +9009,19 @@
         <v>93878</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74573</v>
+        <v>75061</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113071</v>
+        <v>114093</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.171290114243246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1360663432489594</v>
+        <v>0.1369566792957833</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2063102482366476</v>
+        <v>0.2081734468749364</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -9030,19 +9030,19 @@
         <v>75009</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61090</v>
+        <v>59497</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91837</v>
+        <v>90086</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1535783260199792</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1250796767639122</v>
+        <v>0.1218167294218565</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.188032097926097</v>
+        <v>0.1844473957815163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -9051,19 +9051,19 @@
         <v>168887</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144141</v>
+        <v>145039</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192669</v>
+        <v>191693</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1629439204374006</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1390682186838365</v>
+        <v>0.1399344409558107</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1858882559710686</v>
+        <v>0.1849465174269195</v>
       </c>
     </row>
     <row r="5">
@@ -9080,19 +9080,19 @@
         <v>76046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60152</v>
+        <v>60077</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95534</v>
+        <v>94466</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1387530803231663</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.109752810794587</v>
+        <v>0.1096163368436907</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1743106095114638</v>
+        <v>0.1723632569166229</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -9101,19 +9101,19 @@
         <v>56041</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43805</v>
+        <v>43351</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72137</v>
+        <v>71398</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1147423733607116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08968867329463021</v>
+        <v>0.08876012449570153</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1476970512200993</v>
+        <v>0.1461848904698405</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>140</v>
@@ -9122,19 +9122,19 @@
         <v>132087</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>111110</v>
+        <v>112239</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>157797</v>
+        <v>156583</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1274386940399812</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1072002350022915</v>
+        <v>0.1082891038024423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1522436557577372</v>
+        <v>0.1510723434937398</v>
       </c>
     </row>
     <row r="6">
@@ -9151,19 +9151,19 @@
         <v>230901</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>208084</v>
+        <v>208143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>254924</v>
+        <v>254307</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4213027661256198</v>
+        <v>0.4213027661256197</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3796695110543575</v>
+        <v>0.3797772020407886</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4651339573318122</v>
+        <v>0.4640093690781245</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>363</v>
@@ -9172,19 +9172,19 @@
         <v>242946</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>223159</v>
+        <v>225329</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>262546</v>
+        <v>263582</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4974215699941328</v>
+        <v>0.4974215699941327</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4569076108905007</v>
+        <v>0.4613513078985662</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5375505706846982</v>
+        <v>0.5396730907362151</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>614</v>
@@ -9193,19 +9193,19 @@
         <v>473847</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>442879</v>
+        <v>442545</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>503366</v>
+        <v>503242</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4571716621031129</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4272931445846931</v>
+        <v>0.4269704718325826</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4856509730927089</v>
+        <v>0.4855315027280969</v>
       </c>
     </row>
     <row r="7">
@@ -9222,19 +9222,19 @@
         <v>147240</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125995</v>
+        <v>126789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>169574</v>
+        <v>168862</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.268654039307968</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2298909865367817</v>
+        <v>0.231338923860029</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3094047498783874</v>
+        <v>0.3081055649917393</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -9243,19 +9243,19 @@
         <v>114414</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>98063</v>
+        <v>99087</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>130184</v>
+        <v>131107</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2342577306251764</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2007802843168777</v>
+        <v>0.2028756701571149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2665454715418884</v>
+        <v>0.2684365803846802</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>306</v>
@@ -9264,19 +9264,19 @@
         <v>261654</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>236017</v>
+        <v>234904</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>290645</v>
+        <v>290328</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2524457234195053</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2277107896315683</v>
+        <v>0.2266372972074022</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2804164360501913</v>
+        <v>0.2801107984354485</v>
       </c>
     </row>
     <row r="8">
@@ -9368,19 +9368,19 @@
         <v>71759</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>56518</v>
+        <v>54804</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>90637</v>
+        <v>92710</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1485031445182775</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1169635666203641</v>
+        <v>0.1134166378892703</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1875723437785096</v>
+        <v>0.1918612132237619</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>63</v>
@@ -9389,19 +9389,19 @@
         <v>47019</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>37343</v>
+        <v>36961</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60342</v>
+        <v>59906</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1111181479946015</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08825053140733133</v>
+        <v>0.08734783754155202</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1426032313328753</v>
+        <v>0.1415739329111655</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>125</v>
@@ -9410,19 +9410,19 @@
         <v>118777</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>99101</v>
+        <v>99595</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>141738</v>
+        <v>141595</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1310495042645406</v>
+        <v>0.1310495042645407</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1093401015566163</v>
+        <v>0.1098850934471671</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.156382594459967</v>
+        <v>0.1562245457732884</v>
       </c>
     </row>
     <row r="10">
@@ -9439,19 +9439,19 @@
         <v>66526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49492</v>
+        <v>49683</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82900</v>
+        <v>83857</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1376736624104834</v>
+        <v>0.1376736624104833</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1024231318433475</v>
+        <v>0.1028183966890031</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.171559621640451</v>
+        <v>0.1735417139525814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -9460,19 +9460,19 @@
         <v>31139</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22419</v>
+        <v>22159</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43051</v>
+        <v>43104</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07359020735907899</v>
+        <v>0.07359020735907901</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05298231922764252</v>
+        <v>0.05236813329740597</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1017416261227028</v>
+        <v>0.101866298408804</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -9481,19 +9481,19 @@
         <v>97665</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79360</v>
+        <v>78350</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117784</v>
+        <v>119171</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1077555221218949</v>
+        <v>0.107755522121895</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08755983228483061</v>
+        <v>0.08644508558882037</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1299537390818589</v>
+        <v>0.1314834375261802</v>
       </c>
     </row>
     <row r="11">
@@ -9510,19 +9510,19 @@
         <v>221407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>197797</v>
+        <v>198324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>244481</v>
+        <v>242546</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4581992348040625</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4093374385429395</v>
+        <v>0.4104294866559346</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5059497847529797</v>
+        <v>0.5019443721319781</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>295</v>
@@ -9531,19 +9531,19 @@
         <v>205629</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>187704</v>
+        <v>188255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>223209</v>
+        <v>222863</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4859563017663739</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4435937230947966</v>
+        <v>0.4448966833758737</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5275031708397164</v>
+        <v>0.5266851227969661</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>532</v>
@@ -9552,19 +9552,19 @@
         <v>427036</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>396197</v>
+        <v>397417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>457488</v>
+        <v>453898</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4711579590599886</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4371323021988061</v>
+        <v>0.4384785976438594</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5047563315530226</v>
+        <v>0.5007952478729499</v>
       </c>
     </row>
     <row r="12">
@@ -9581,19 +9581,19 @@
         <v>123521</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>104842</v>
+        <v>104406</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>145549</v>
+        <v>145704</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2556239582671767</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.216968268133848</v>
+        <v>0.2160670493855262</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3012105114501638</v>
+        <v>0.3015331535240464</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>194</v>
@@ -9602,19 +9602,19 @@
         <v>139356</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>122704</v>
+        <v>122731</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>156422</v>
+        <v>156242</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3293353428799455</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2899824455625479</v>
+        <v>0.2900455041260031</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3696674486310337</v>
+        <v>0.3692405444354896</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>320</v>
@@ -9623,19 +9623,19 @@
         <v>262876</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>237242</v>
+        <v>238358</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>290814</v>
+        <v>288176</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2900370145535759</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2617542364267544</v>
+        <v>0.2629850796763853</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3208605476499113</v>
+        <v>0.3179506619256453</v>
       </c>
     </row>
     <row r="13">
@@ -9727,19 +9727,19 @@
         <v>52869</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>39052</v>
+        <v>39997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68627</v>
+        <v>70903</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1123285671895687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08297082250455615</v>
+        <v>0.08498015004914745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1458070899630706</v>
+        <v>0.150644681601831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -9748,19 +9748,19 @@
         <v>11121</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6314</v>
+        <v>6127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18462</v>
+        <v>18481</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05954841288662409</v>
+        <v>0.0595484128866241</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03380761779478467</v>
+        <v>0.0328048205716081</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09885423241512313</v>
+        <v>0.09895735249555572</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>61</v>
@@ -9769,19 +9769,19 @@
         <v>63991</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47863</v>
+        <v>49812</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>81724</v>
+        <v>82959</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09733486933294407</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07280413594458264</v>
+        <v>0.07576758979300298</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1243080646181305</v>
+        <v>0.1261876847925025</v>
       </c>
     </row>
     <row r="15">
@@ -9798,19 +9798,19 @@
         <v>39048</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27319</v>
+        <v>27107</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>54185</v>
+        <v>54788</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08296343224981362</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05804332660854285</v>
+        <v>0.05759371804808482</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1151231274922336</v>
+        <v>0.1164039810410706</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>19</v>
@@ -9819,19 +9819,19 @@
         <v>13035</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8190</v>
+        <v>8071</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20094</v>
+        <v>20571</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06979407679128541</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04385090361490657</v>
+        <v>0.04321749683143727</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1075932521330914</v>
+        <v>0.1101459118355594</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>53</v>
@@ -9840,19 +9840,19 @@
         <v>52083</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>39151</v>
+        <v>39648</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>67420</v>
+        <v>69978</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07922230380258878</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05955121870166446</v>
+        <v>0.06030844803024141</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1025512772221978</v>
+        <v>0.1064419824311419</v>
       </c>
     </row>
     <row r="16">
@@ -9869,19 +9869,19 @@
         <v>204284</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>182059</v>
+        <v>182912</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>228031</v>
+        <v>227985</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4340302206049779</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3868110187395743</v>
+        <v>0.388622706892668</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.484484021195251</v>
+        <v>0.4843861888463583</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>138</v>
@@ -9890,19 +9890,19 @@
         <v>84716</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73433</v>
+        <v>73203</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96550</v>
+        <v>96460</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4536051963074468</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3931933494274513</v>
+        <v>0.3919595817835877</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5169717375373097</v>
+        <v>0.5164871126401005</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>372</v>
@@ -9911,19 +9911,19 @@
         <v>288999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>263672</v>
+        <v>263800</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>313352</v>
+        <v>316808</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4395910469252073</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4010662148192746</v>
+        <v>0.4012599969159416</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4766337912999558</v>
+        <v>0.4818896755340557</v>
       </c>
     </row>
     <row r="17">
@@ -9940,19 +9940,19 @@
         <v>174466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151037</v>
+        <v>151567</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197445</v>
+        <v>196533</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3706777799556399</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3208996679357482</v>
+        <v>0.3220250720885207</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.419501070251074</v>
+        <v>0.4175624528084745</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -9961,19 +9961,19 @@
         <v>77889</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>66400</v>
+        <v>66274</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89044</v>
+        <v>89806</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4170523140146437</v>
+        <v>0.4170523140146438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3555348274726789</v>
+        <v>0.3548608573282595</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4767820631575032</v>
+        <v>0.4808586498933017</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>289</v>
@@ -9982,19 +9982,19 @@
         <v>252355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>228267</v>
+        <v>225225</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>276659</v>
+        <v>275822</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3838517799392598</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3472120194946823</v>
+        <v>0.3425848040064883</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4208205698733602</v>
+        <v>0.4195464655855575</v>
       </c>
     </row>
     <row r="18">
@@ -10086,19 +10086,19 @@
         <v>87170</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65666</v>
+        <v>67276</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112581</v>
+        <v>107431</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07729948785003178</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0582305399071092</v>
+        <v>0.05965867904347452</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09983315238445721</v>
+        <v>0.09526703225547307</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -10107,19 +10107,19 @@
         <v>56807</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43846</v>
+        <v>44543</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71115</v>
+        <v>72207</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06604584306211263</v>
+        <v>0.06604584306211261</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05097748145409622</v>
+        <v>0.05178770811494761</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08268109465262309</v>
+        <v>0.08395073481372392</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>136</v>
@@ -10128,19 +10128,19 @@
         <v>143976</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>119130</v>
+        <v>121235</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>173586</v>
+        <v>171773</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07243009588718759</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05993060589854892</v>
+        <v>0.06098963508999232</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08732557928165995</v>
+        <v>0.08641352488860113</v>
       </c>
     </row>
     <row r="20">
@@ -10157,19 +10157,19 @@
         <v>117411</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>95320</v>
+        <v>92349</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>146831</v>
+        <v>142440</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1041168610726488</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08452701741381366</v>
+        <v>0.0818920623350093</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1302052545567237</v>
+        <v>0.1263114979325293</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>66</v>
@@ -10178,19 +10178,19 @@
         <v>56696</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44806</v>
+        <v>43091</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72602</v>
+        <v>72867</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06591770857519376</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05209323640271865</v>
+        <v>0.05009953240126903</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08440979977128908</v>
+        <v>0.08471881398756934</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>156</v>
@@ -10199,19 +10199,19 @@
         <v>174108</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>147885</v>
+        <v>146841</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>204411</v>
+        <v>205725</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08758829191448182</v>
+        <v>0.08758829191448184</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07439625472132508</v>
+        <v>0.0738712534539939</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1028326558917321</v>
+        <v>0.1034938207598307</v>
       </c>
     </row>
     <row r="21">
@@ -10228,19 +10228,19 @@
         <v>495143</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>462106</v>
+        <v>462348</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>531697</v>
+        <v>530973</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4390779464039052</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4097821765634199</v>
+        <v>0.4099965458734069</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4714931229201053</v>
+        <v>0.4708511339610118</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>601</v>
@@ -10249,19 +10249,19 @@
         <v>398347</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>373544</v>
+        <v>370197</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>423780</v>
+        <v>422313</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4631358246164366</v>
+        <v>0.4631358246164365</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4342979157176111</v>
+        <v>0.4304070723390347</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4927051544184191</v>
+        <v>0.4909988213026101</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1127</v>
@@ -10270,19 +10270,19 @@
         <v>893491</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>847411</v>
+        <v>847563</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>934917</v>
+        <v>939071</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4494876617467017</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4263065238047337</v>
+        <v>0.4263830864424416</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4703280328131844</v>
+        <v>0.4724179438179129</v>
       </c>
     </row>
     <row r="22">
@@ -10299,19 +10299,19 @@
         <v>427964</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>395274</v>
+        <v>392978</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>461610</v>
+        <v>461956</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3795057046734142</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3505174947009217</v>
+        <v>0.348480793405037</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4093419723246843</v>
+        <v>0.4096491567147162</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>492</v>
@@ -10320,19 +10320,19 @@
         <v>348259</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>323473</v>
+        <v>324928</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>372783</v>
+        <v>374623</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4049006237462571</v>
+        <v>0.404900623746257</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3760835323343876</v>
+        <v>0.3777753186918632</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4334139327206378</v>
+        <v>0.4355532261499201</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>923</v>
@@ -10341,19 +10341,19 @@
         <v>776223</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>735038</v>
+        <v>732984</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>822490</v>
+        <v>821378</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3904939504516288</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3697749043889459</v>
+        <v>0.3687416804427757</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4137693110748097</v>
+        <v>0.4132098863016608</v>
       </c>
     </row>
     <row r="23">
@@ -10445,19 +10445,19 @@
         <v>41404</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28095</v>
+        <v>28303</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58614</v>
+        <v>59116</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07319665782049289</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04966873421174198</v>
+        <v>0.05003647834928995</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1036223736727703</v>
+        <v>0.1045107891688893</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -10466,19 +10466,19 @@
         <v>22895</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16442</v>
+        <v>16537</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31723</v>
+        <v>32823</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02764834105325883</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01985521676308891</v>
+        <v>0.0199706641787898</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03830903922656574</v>
+        <v>0.03963750853866187</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>66</v>
@@ -10487,19 +10487,19 @@
         <v>64298</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>48870</v>
+        <v>49426</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>82722</v>
+        <v>84510</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04613431859531055</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03506469456127699</v>
+        <v>0.03546316581044468</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05935323686957935</v>
+        <v>0.06063613245442671</v>
       </c>
     </row>
     <row r="25">
@@ -10516,19 +10516,19 @@
         <v>73639</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54136</v>
+        <v>55850</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97864</v>
+        <v>98643</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1301860738884734</v>
+        <v>0.1301860738884733</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09570649853483214</v>
+        <v>0.0987363319299519</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1730126018929061</v>
+        <v>0.1743891193476776</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -10537,19 +10537,19 @@
         <v>23754</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16710</v>
+        <v>16241</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33233</v>
+        <v>32405</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02868540130978361</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02017938781431503</v>
+        <v>0.0196132839574869</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04013292873629661</v>
+        <v>0.03913269191372072</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>86</v>
@@ -10558,19 +10558,19 @@
         <v>97393</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76658</v>
+        <v>75180</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121890</v>
+        <v>122710</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06987987976617696</v>
+        <v>0.06987987976617695</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05500225589033042</v>
+        <v>0.05394190760841993</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08745644961962293</v>
+        <v>0.08804489816926428</v>
       </c>
     </row>
     <row r="26">
@@ -10587,19 +10587,19 @@
         <v>200633</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>174991</v>
+        <v>175910</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>224067</v>
+        <v>225024</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3546953965971475</v>
+        <v>0.3546953965971474</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3093632140519239</v>
+        <v>0.3109890443004188</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3961239190897484</v>
+        <v>0.3978164412690595</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>631</v>
@@ -10608,19 +10608,19 @@
         <v>402711</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>379410</v>
+        <v>379329</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>429310</v>
+        <v>428067</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4863226754432753</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4581837677057501</v>
+        <v>0.4580863256001804</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5184444724586007</v>
+        <v>0.5169441559691932</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>847</v>
@@ -10629,19 +10629,19 @@
         <v>603343</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>568824</v>
+        <v>569940</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>638853</v>
+        <v>637768</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4329011860585939</v>
+        <v>0.4329011860585938</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4081332635125167</v>
+        <v>0.4089342223502915</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4583791875848667</v>
+        <v>0.4576006937258537</v>
       </c>
     </row>
     <row r="27">
@@ -10658,19 +10658,19 @@
         <v>249972</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>223413</v>
+        <v>224540</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>273888</v>
+        <v>276891</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4419218716938864</v>
+        <v>0.4419218716938863</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3949687415285602</v>
+        <v>0.3969610664398805</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4842021876367238</v>
+        <v>0.4895120063546148</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>586</v>
@@ -10679,19 +10679,19 @@
         <v>378714</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>352812</v>
+        <v>354737</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>402027</v>
+        <v>403138</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4573435821936824</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4260641018069602</v>
+        <v>0.4283887420583729</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4854972729246116</v>
+        <v>0.4868390285911389</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>832</v>
@@ -10700,19 +10700,19 @@
         <v>628686</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>594082</v>
+        <v>589521</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>664201</v>
+        <v>663992</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4510846155799186</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4262562624012654</v>
+        <v>0.4229838612379677</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4765669369509598</v>
+        <v>0.4764166111607683</v>
       </c>
     </row>
     <row r="28">
@@ -10804,19 +10804,19 @@
         <v>67021</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>46150</v>
+        <v>47172</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>91066</v>
+        <v>88374</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2825152587183887</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1945384338392765</v>
+        <v>0.1988450854047065</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3838747613004936</v>
+        <v>0.3725270984877704</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>47</v>
@@ -10825,19 +10825,19 @@
         <v>41058</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>29258</v>
+        <v>29370</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>55816</v>
+        <v>56117</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04882856356700029</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03479549351529636</v>
+        <v>0.03492867647542398</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06638051455879747</v>
+        <v>0.06673808951761176</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>78</v>
@@ -10846,19 +10846,19 @@
         <v>108078</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>84119</v>
+        <v>84241</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>137517</v>
+        <v>137317</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1002503983113237</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07802651351325988</v>
+        <v>0.07813939503497215</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1275566739034641</v>
+        <v>0.1273718191156788</v>
       </c>
     </row>
     <row r="30">
@@ -10875,19 +10875,19 @@
         <v>64047</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>43423</v>
+        <v>44154</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>86057</v>
+        <v>86267</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2699805568857628</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1830422547675619</v>
+        <v>0.1861252737352763</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3627606698430577</v>
+        <v>0.3636462302548623</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>50</v>
@@ -10896,19 +10896,19 @@
         <v>47708</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>34266</v>
+        <v>35939</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>65093</v>
+        <v>62701</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05673791701453891</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04075094841576443</v>
+        <v>0.04274138097706896</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07741307085093364</v>
+        <v>0.07456855655908975</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>80</v>
@@ -10917,19 +10917,19 @@
         <v>111755</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>87553</v>
+        <v>87271</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>141503</v>
+        <v>139398</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1036611181013519</v>
+        <v>0.1036611181013518</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08121151476814191</v>
+        <v>0.08095050526657462</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1312544043380097</v>
+        <v>0.1293017864189882</v>
       </c>
     </row>
     <row r="31">
@@ -10946,19 +10946,19 @@
         <v>77444</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>56997</v>
+        <v>55379</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>103152</v>
+        <v>102092</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3264549793825372</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2402641425990674</v>
+        <v>0.2334433735403804</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4348219776505195</v>
+        <v>0.4303553766927272</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>483</v>
@@ -10967,19 +10967,19 @@
         <v>341553</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>314100</v>
+        <v>313137</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>370817</v>
+        <v>370093</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4061981798957997</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3735488946625988</v>
+        <v>0.3724034918888148</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4410004164570329</v>
+        <v>0.4401393618701934</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>518</v>
@@ -10988,19 +10988,19 @@
         <v>418998</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>382607</v>
+        <v>384458</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>452599</v>
+        <v>456179</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3886510034246702</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3548964371888602</v>
+        <v>0.3566130592497218</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4198185282274199</v>
+        <v>0.4231392716885338</v>
       </c>
     </row>
     <row r="32">
@@ -11017,19 +11017,19 @@
         <v>28716</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>15226</v>
+        <v>15879</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49543</v>
+        <v>50605</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1210492050133113</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0641821159883852</v>
+        <v>0.06693638090279257</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.208843036681144</v>
+        <v>0.2133177541333968</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>575</v>
@@ -11038,19 +11038,19 @@
         <v>410535</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>383033</v>
+        <v>381701</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>439667</v>
+        <v>438557</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4882353395226611</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4555283381435272</v>
+        <v>0.4539449822554631</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5228817895862956</v>
+        <v>0.5215612368791616</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>591</v>
@@ -11059,19 +11059,19 @@
         <v>439251</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>405738</v>
+        <v>401926</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>478589</v>
+        <v>473324</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4074374801626541</v>
+        <v>0.407437480162654</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3763513264897485</v>
+        <v>0.3728153471682331</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4439264922905297</v>
+        <v>0.439042953057113</v>
       </c>
     </row>
     <row r="33">
@@ -11163,19 +11163,19 @@
         <v>414100</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>367774</v>
+        <v>373603</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>455041</v>
+        <v>460285</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1206405669685497</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1071443645832244</v>
+        <v>0.1088425105752113</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1325680290785411</v>
+        <v>0.1340958777845032</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>322</v>
@@ -11184,19 +11184,19 @@
         <v>253909</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>225546</v>
+        <v>226144</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>284589</v>
+        <v>282463</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06999836406116261</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06217920424700656</v>
+        <v>0.06234396965395991</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07845629391664126</v>
+        <v>0.07787028965315292</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>644</v>
@@ -11205,19 +11205,19 @@
         <v>668008</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>614927</v>
+        <v>614780</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>722240</v>
+        <v>725476</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.09462063216751244</v>
+        <v>0.09462063216751243</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08710180776903269</v>
+        <v>0.08708107058665525</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1023022750144618</v>
+        <v>0.102760623042363</v>
       </c>
     </row>
     <row r="35">
@@ -11234,19 +11234,19 @@
         <v>436717</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>390177</v>
+        <v>390747</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>488337</v>
+        <v>486068</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1272297507263495</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1136711984464717</v>
+        <v>0.1138372255466444</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1422681841069052</v>
+        <v>0.1416071953797756</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>275</v>
@@ -11255,19 +11255,19 @@
         <v>228374</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>202593</v>
+        <v>202247</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>262017</v>
+        <v>258009</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.06295881678208187</v>
+        <v>0.06295881678208189</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05585144197809256</v>
+        <v>0.05575604753270232</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0722337933452095</v>
+        <v>0.07112876278191248</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>609</v>
@@ -11276,19 +11276,19 @@
         <v>665091</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>611573</v>
+        <v>608307</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>716479</v>
+        <v>720010</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.09420738173719011</v>
+        <v>0.09420738173719009</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08662677316871739</v>
+        <v>0.08616424105742661</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1014863486129039</v>
+        <v>0.1019864281670893</v>
       </c>
     </row>
     <row r="36">
@@ -11305,19 +11305,19 @@
         <v>1429812</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1365051</v>
+        <v>1370935</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1489645</v>
+        <v>1498283</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4165503377394504</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.397683233423945</v>
+        <v>0.3993973855161216</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4339814213773825</v>
+        <v>0.436498115964795</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2511</v>
@@ -11326,19 +11326,19 @@
         <v>1675903</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1622587</v>
+        <v>1620478</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1728774</v>
+        <v>1728179</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.4620182174384372</v>
+        <v>0.4620182174384371</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4473200495901843</v>
+        <v>0.4467385461318856</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.476594000818949</v>
+        <v>0.4764299197992719</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4010</v>
@@ -11347,19 +11347,19 @@
         <v>3105715</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3024515</v>
+        <v>3021475</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3188457</v>
+        <v>3191187</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4399117082444541</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4284100126706338</v>
+        <v>0.427979427864681</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4516317959779433</v>
+        <v>0.4520184300001487</v>
       </c>
     </row>
     <row r="37">
@@ -11376,19 +11376,19 @@
         <v>1151879</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1092294</v>
+        <v>1089834</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1213410</v>
+        <v>1210705</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3355793445656504</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3182202612891928</v>
+        <v>0.3175037057917546</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3535054384248643</v>
+        <v>0.3527172995294854</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2125</v>
@@ -11397,19 +11397,19 @@
         <v>1469167</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1422120</v>
+        <v>1421782</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1526871</v>
+        <v>1518824</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4050246017183183</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3920547120336028</v>
+        <v>0.3919614034256378</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4209327631457567</v>
+        <v>0.4187141291079278</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3261</v>
@@ -11418,19 +11418,19 @@
         <v>2621046</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2542388</v>
+        <v>2539290</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2701590</v>
+        <v>2703616</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3712602778508434</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3601187272862769</v>
+        <v>0.3596799033574788</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3826691200028168</v>
+        <v>0.3829560964435933</v>
       </c>
     </row>
     <row r="38">
